--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="12840"/>
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>VERBE</t>
   </si>
@@ -65,14 +65,307 @@
         <scheme val="minor"/>
       </rPr>
       <t>/client/comptes/{RIB}</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllNotifications()</t>
+  </si>
+  <si>
+    <t>List&lt;Notification&gt;</t>
+  </si>
+  <si>
+    <t>exemple</t>
+  </si>
+  <si>
+    <t>ajouterNotification()</t>
+  </si>
+  <si>
+    <t>supprimerNotification()</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/comptes</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllComptes()</t>
+  </si>
+  <si>
+    <t>getCompteById()</t>
+  </si>
+  <si>
+    <t>Compte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/notifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/notifications/ajout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/notification/{id}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}/operations</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllOperations()</t>
+  </si>
+  <si>
+    <t>List&lt;Operation&gt;</t>
+  </si>
+  <si>
+    <t>getAllOperations(int duree)</t>
+  </si>
+  <si>
+    <t>getAllOperations(Date dateDebut, Date dateFin)</t>
+  </si>
+  <si>
+    <t>getAllOperations(Date dateDebut)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}/operations (+param)</t>
+    </r>
+  </si>
+  <si>
+    <t>ajouterOperation()</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}/operation/ajout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}/chequier</t>
+    </r>
+  </si>
+  <si>
+    <t>ajoutDemandeChequier()</t>
+  </si>
+  <si>
+    <t>ajoutDemandeCompte()</t>
+  </si>
+  <si>
+    <t>Demande</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/comptes/ajout</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +502,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,7 +536,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,53 +711,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -476,24 +971,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>VERBE</t>
   </si>
@@ -359,6 +359,32 @@
       </rPr>
       <t>/client/{id}/comptes/ajout</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/comptes/demande</t>
+    </r>
+  </si>
+  <si>
+    <t>ajoutCompte()</t>
   </si>
 </sst>
 </file>
@@ -712,18 +738,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="63.85546875" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -955,13 +981,30 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="12840"/>
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>VERBE</t>
   </si>
@@ -66,13 +66,332 @@
       </rPr>
       <t>/client/comptes/{RIB}</t>
     </r>
+  </si>
+  <si>
+    <t>getAllNotifications()</t>
+  </si>
+  <si>
+    <t>List&lt;Notification&gt;</t>
+  </si>
+  <si>
+    <t>exemple</t>
+  </si>
+  <si>
+    <t>ajouterNotification()</t>
+  </si>
+  <si>
+    <t>supprimerNotification()</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/comptes</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllComptes()</t>
+  </si>
+  <si>
+    <t>getCompteById()</t>
+  </si>
+  <si>
+    <t>Compte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/notifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/notifications/ajout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/notification/{id}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}/operations</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllOperations()</t>
+  </si>
+  <si>
+    <t>List&lt;Operation&gt;</t>
+  </si>
+  <si>
+    <t>getAllOperations(int duree)</t>
+  </si>
+  <si>
+    <t>getAllOperations(Date dateDebut, Date dateFin)</t>
+  </si>
+  <si>
+    <t>getAllOperations(Date dateDebut)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}/operations (+param)</t>
+    </r>
+  </si>
+  <si>
+    <t>ajouterOperation()</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}/operation/ajout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/compte/{IBAN}/chequier</t>
+    </r>
+  </si>
+  <si>
+    <t>ajoutDemandeChequier()</t>
+  </si>
+  <si>
+    <t>ajoutDemandeCompte()</t>
+  </si>
+  <si>
+    <t>Demande</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/comptes/ajout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/client/{id}/comptes/demande</t>
+    </r>
+  </si>
+  <si>
+    <t>ajoutCompte()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +528,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,7 +562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,53 +737,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -476,24 +1014,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="12840"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
   <si>
     <t>VERBE</t>
   </si>
@@ -30,9 +30,6 @@
     <t>RETURN</t>
   </si>
   <si>
-    <t>getComptes(Client)</t>
-  </si>
-  <si>
     <t>ESPACE</t>
   </si>
   <si>
@@ -45,6 +42,103 @@
     <t>GET</t>
   </si>
   <si>
+    <t>getAllNotifications()</t>
+  </si>
+  <si>
+    <t>List&lt;Notification&gt;</t>
+  </si>
+  <si>
+    <t>ajouterNotification()</t>
+  </si>
+  <si>
+    <t>supprimerNotification()</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>getAllComptes()</t>
+  </si>
+  <si>
+    <t>Compte</t>
+  </si>
+  <si>
+    <t>getAllOperations()</t>
+  </si>
+  <si>
+    <t>List&lt;Operation&gt;</t>
+  </si>
+  <si>
+    <t>ajouterOperation()</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>ajoutDemandeChequier()</t>
+  </si>
+  <si>
+    <t>ajoutDemandeCompte()</t>
+  </si>
+  <si>
+    <t>Demande</t>
+  </si>
+  <si>
+    <t>ajoutCompte()</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>getAllOperations(dateDebut, dateFin, duree)</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>creerDemandeInscription()</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>String role</t>
+  </si>
+  <si>
+    <r>
+      <t>getCompteByIBAN(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IBAN)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -64,32 +158,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/comptes/{RIB}</t>
-    </r>
-  </si>
-  <si>
-    <t>getAllNotifications()</t>
-  </si>
-  <si>
-    <t>List&lt;Notification&gt;</t>
-  </si>
-  <si>
-    <t>exemple</t>
-  </si>
-  <si>
-    <t>ajouterNotification()</t>
-  </si>
-  <si>
-    <t>supprimerNotification()</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>DELETE</t>
+      <t>/login</t>
+    </r>
+  </si>
+  <si>
+    <t>AGENT</t>
+  </si>
+  <si>
+    <t>AGENT/ADMIN</t>
+  </si>
+  <si>
+    <t>CLIENT/AGENT</t>
+  </si>
+  <si>
+    <t>modifierCompteByIBAN(String IBAN)</t>
+  </si>
+  <si>
+    <t>verif(identifiant, mdp)</t>
+  </si>
+  <si>
+    <t>getAllAgents()</t>
+  </si>
+  <si>
+    <t>List&lt;Agent&gt;</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
   </si>
   <si>
     <r>
@@ -111,17 +205,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/comptes</t>
-    </r>
-  </si>
-  <si>
-    <t>getAllComptes()</t>
-  </si>
-  <si>
-    <t>getCompteById()</t>
-  </si>
-  <si>
-    <t>Compte</t>
+      <t>/agents</t>
+    </r>
+  </si>
+  <si>
+    <t>creerAgent()</t>
+  </si>
+  <si>
+    <t>Agent</t>
   </si>
   <si>
     <r>
@@ -143,8 +234,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/compte/{IBAN}</t>
-    </r>
+      <t>/agents/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>modifierAgent()</t>
+  </si>
+  <si>
+    <t>supprimerAgent()</t>
+  </si>
+  <si>
+    <t>getClientByAgent()</t>
+  </si>
+  <si>
+    <t>List&lt;Client&gt;</t>
+  </si>
+  <si>
+    <t>getAllInscriptions()</t>
+  </si>
+  <si>
+    <t>List&lt;Inscriptions&gt;</t>
   </si>
   <si>
     <r>
@@ -166,8 +275,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/notifications</t>
-    </r>
+      <t>/inscriptions</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllInscriptions(traitee, affectee)</t>
+  </si>
+  <si>
+    <t>List&lt;Demande&gt;</t>
   </si>
   <si>
     <r>
@@ -189,7 +304,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/notifications/ajout</t>
+      <t>/demandes</t>
     </r>
   </si>
   <si>
@@ -212,8 +327,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/notification/{id}</t>
-    </r>
+      <t>/clients/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>affecterClient(matAgent)</t>
+  </si>
+  <si>
+    <t>getAllDemandesByAgent(matAgent)</t>
+  </si>
+  <si>
+    <t>getAllDemandesByClient(idClient)</t>
+  </si>
+  <si>
+    <t>?MatAgent=&amp;Status=</t>
+  </si>
+  <si>
+    <t>?IdClient=&amp;Status=</t>
   </si>
   <si>
     <r>
@@ -235,23 +368,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/compte/{IBAN}/operations</t>
-    </r>
-  </si>
-  <si>
-    <t>getAllOperations()</t>
-  </si>
-  <si>
-    <t>List&lt;Operation&gt;</t>
-  </si>
-  <si>
-    <t>getAllOperations(int duree)</t>
-  </si>
-  <si>
-    <t>getAllOperations(Date dateDebut, Date dateFin)</t>
-  </si>
-  <si>
-    <t>getAllOperations(Date dateDebut)</t>
+      <t>/clients/{id}/comptes</t>
+    </r>
   </si>
   <si>
     <r>
@@ -273,14 +391,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/compte/{IBAN}/operations (+param)</t>
-    </r>
-  </si>
-  <si>
-    <t>ajouterOperation()</t>
-  </si>
-  <si>
-    <t>Operation</t>
+      <t>/clients/{id}/comptes/{IBAN}</t>
+    </r>
   </si>
   <si>
     <r>
@@ -302,7 +414,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/compte/{IBAN}/operation/ajout</t>
+      <t>/clients/{id}/comptes/{IBAN}/operations</t>
     </r>
   </si>
   <si>
@@ -325,17 +437,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/compte/{IBAN}/chequier</t>
-    </r>
-  </si>
-  <si>
-    <t>ajoutDemandeChequier()</t>
-  </si>
-  <si>
-    <t>ajoutDemandeCompte()</t>
-  </si>
-  <si>
-    <t>Demande</t>
+      <t>/clients/{id}/notifications</t>
+    </r>
   </si>
   <si>
     <r>
@@ -357,7 +460,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/comptes/ajout</t>
+      <t>/clients/{id}/notifications/{id}</t>
     </r>
   </si>
   <si>
@@ -380,27 +483,159 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/{id}/comptes/demande</t>
-    </r>
-  </si>
-  <si>
-    <t>ajoutCompte()</t>
+      <t>/clients</t>
+    </r>
+  </si>
+  <si>
+    <t>creerClient()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{matriculeAgent}</t>
+    </r>
+  </si>
+  <si>
+    <t>getClientById()</t>
+  </si>
+  <si>
+    <t>formInscription</t>
+  </si>
+  <si>
+    <t>formCompte</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>modifierMdp(mdp)</t>
+  </si>
+  <si>
+    <t>creation du client</t>
+  </si>
+  <si>
+    <t>REMARQUE</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>ajoutDemandeChgtMdp()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{id}/demandeCompte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{id}/comptes/{IBAN}/demandeChequier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{id}/demandeChgtMdp</t>
+    </r>
+  </si>
+  <si>
+    <t>INPUT (consume)</t>
+  </si>
+  <si>
+    <t>?Username=...&amp;Password=…</t>
+  </si>
+  <si>
+    <t>?Status=...&amp;Affectee=…</t>
+  </si>
+  <si>
+    <t>?Mdp=…</t>
+  </si>
+  <si>
+    <t>?MatAgent=…</t>
+  </si>
+  <si>
+    <t>?DateDeb=...&amp;DateFin=...&amp;Duree=…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -415,13 +650,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -436,9 +711,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,6 +806,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -562,6 +841,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -737,275 +1017,720 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1014,24 +1739,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="110">
   <si>
     <t>VERBE</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Compte</t>
   </si>
   <si>
-    <t>getAllOperations()</t>
-  </si>
-  <si>
     <t>List&lt;Operation&gt;</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>PARAMS</t>
   </si>
   <si>
-    <t>getAllOperations(dateDebut, dateFin, duree)</t>
-  </si>
-  <si>
     <t>PUBLIC</t>
   </si>
   <si>
@@ -334,9 +328,6 @@
     <t>Client</t>
   </si>
   <si>
-    <t>affecterClient(matAgent)</t>
-  </si>
-  <si>
     <t>getAllDemandesByAgent(matAgent)</t>
   </si>
   <si>
@@ -368,8 +359,368 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>/clients/{id}/notifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients</t>
+    </r>
+  </si>
+  <si>
+    <t>creerClient()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{matriculeAgent}</t>
+    </r>
+  </si>
+  <si>
+    <t>getClientById()</t>
+  </si>
+  <si>
+    <t>formInscription</t>
+  </si>
+  <si>
+    <t>formCompte</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>creation du client</t>
+  </si>
+  <si>
+    <t>REMARQUE</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>ajoutDemandeChgtMdp()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{id}/demandeCompte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{id}/demandeChgtMdp</t>
+    </r>
+  </si>
+  <si>
+    <t>INPUT (consume)</t>
+  </si>
+  <si>
+    <t>?Username=...&amp;Password=…</t>
+  </si>
+  <si>
+    <t>?Status=...&amp;Affectee=…</t>
+  </si>
+  <si>
+    <t>?Mdp=…</t>
+  </si>
+  <si>
+    <t>?MatAgent=…</t>
+  </si>
+  <si>
+    <t>?DateDeb=...&amp;DateFin=...&amp;Duree=…</t>
+  </si>
+  <si>
+    <t>getAllOperationsByIBAN()</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>AuthService</t>
+  </si>
+  <si>
+    <t>InscriptionService</t>
+  </si>
+  <si>
+    <t>ClientService</t>
+  </si>
+  <si>
+    <t>CompteService</t>
+  </si>
+  <si>
+    <t>NotificationService</t>
+  </si>
+  <si>
+    <t>DemandeService</t>
+  </si>
+  <si>
+    <t>AgentService</t>
+  </si>
+  <si>
+    <t>modifierClient(Client)</t>
+  </si>
+  <si>
+    <t>SoapUI</t>
+  </si>
+  <si>
+    <t>BACK</t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{id}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{IBAN}/operations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{id}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{IBAN}/demandeChequier</t>
+    </r>
+  </si>
+  <si>
+    <t>affecterClient(Client)</t>
+  </si>
+  <si>
+    <t>getAllOperationsByIBAN(dateDebut, dateFin, duree)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{id}/notifications/{idN}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/clients/{id}/comptes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>/clients/{id}/comptes</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -391,7 +742,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/clients/{id}/comptes/{IBAN}</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{IBAN}</t>
     </r>
   </si>
   <si>
@@ -414,227 +775,55 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/clients/{id}/comptes/{IBAN}/operations</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{id}/notifications</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{id}/notifications/{id}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients</t>
-    </r>
-  </si>
-  <si>
-    <t>creerClient()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{matriculeAgent}</t>
-    </r>
-  </si>
-  <si>
-    <t>getClientById()</t>
-  </si>
-  <si>
-    <t>formInscription</t>
-  </si>
-  <si>
-    <t>formCompte</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>Inscription</t>
-  </si>
-  <si>
-    <t>modifierMdp(mdp)</t>
-  </si>
-  <si>
-    <t>creation du client</t>
-  </si>
-  <si>
-    <t>REMARQUE</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>ajoutDemandeChgtMdp()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{id}/demandeCompte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{id}/comptes/{IBAN}/demandeChequier</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{id}/demandeChgtMdp</t>
-    </r>
-  </si>
-  <si>
-    <t>INPUT (consume)</t>
-  </si>
-  <si>
-    <t>?Username=...&amp;Password=…</t>
-  </si>
-  <si>
-    <t>?Status=...&amp;Affectee=…</t>
-  </si>
-  <si>
-    <t>?Mdp=…</t>
-  </si>
-  <si>
-    <t>?MatAgent=…</t>
-  </si>
-  <si>
-    <t>?DateDeb=...&amp;DateFin=...&amp;Duree=…</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{id}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{IBAN}</t>
+    </r>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Persist</t>
+  </si>
+  <si>
+    <t>Dev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,14 +849,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -711,12 +920,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,719 +1229,1098 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="45.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="O1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="N3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="J7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="J14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="H21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="J23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="J25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="J26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="12840"/>
@@ -11,12 +11,15 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$O$34</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="124">
   <si>
     <t>VERBE</t>
   </si>
@@ -42,18 +45,9 @@
     <t>GET</t>
   </si>
   <si>
-    <t>getAllNotifications()</t>
-  </si>
-  <si>
     <t>List&lt;Notification&gt;</t>
   </si>
   <si>
-    <t>ajouterNotification()</t>
-  </si>
-  <si>
-    <t>supprimerNotification()</t>
-  </si>
-  <si>
     <t>Notification</t>
   </si>
   <si>
@@ -72,18 +66,9 @@
     <t>List&lt;Operation&gt;</t>
   </si>
   <si>
-    <t>ajouterOperation()</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
-    <t>ajoutDemandeChequier()</t>
-  </si>
-  <si>
-    <t>ajoutDemandeCompte()</t>
-  </si>
-  <si>
     <t>Demande</t>
   </si>
   <si>
@@ -109,28 +94,445 @@
   </si>
   <si>
     <r>
-      <t>getCompteByIBAN(</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/login</t>
+    </r>
+  </si>
+  <si>
+    <t>AGENT</t>
+  </si>
+  <si>
+    <t>AGENT/ADMIN</t>
+  </si>
+  <si>
+    <t>CLIENT/AGENT</t>
+  </si>
+  <si>
+    <t>verif(identifiant, mdp)</t>
+  </si>
+  <si>
+    <t>getAllAgents()</t>
+  </si>
+  <si>
+    <t>List&lt;Agent&gt;</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/agents</t>
+    </r>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/agents/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>List&lt;Client&gt;</t>
+  </si>
+  <si>
+    <t>getAllInscriptions()</t>
+  </si>
+  <si>
+    <t>List&lt;Inscriptions&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/inscriptions</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllInscriptions(traitee, affectee)</t>
+  </si>
+  <si>
+    <t>List&lt;Demande&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/demandes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>getAllDemandesByAgent(matAgent)</t>
+  </si>
+  <si>
+    <t>getAllDemandesByClient(idClient)</t>
+  </si>
+  <si>
+    <t>?MatAgent=&amp;Status=</t>
+  </si>
+  <si>
+    <t>?IdClient=&amp;Status=</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients</t>
+    </r>
+  </si>
+  <si>
+    <t>creerClient()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{matriculeAgent}</t>
+    </r>
+  </si>
+  <si>
+    <t>formCompte</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>creation du client</t>
+  </si>
+  <si>
+    <t>REMARQUE</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>?Username=...&amp;Password=…</t>
+  </si>
+  <si>
+    <t>?Status=...&amp;Affectee=…</t>
+  </si>
+  <si>
+    <t>?Mdp=…</t>
+  </si>
+  <si>
+    <t>?MatAgent=…</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>AuthService</t>
+  </si>
+  <si>
+    <t>InscriptionService</t>
+  </si>
+  <si>
+    <t>ClientService</t>
+  </si>
+  <si>
+    <t>CompteService</t>
+  </si>
+  <si>
+    <t>NotificationService</t>
+  </si>
+  <si>
+    <t>DemandeService</t>
+  </si>
+  <si>
+    <t>AgentService</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Persist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     JAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     SoapUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Angular</t>
+  </si>
+  <si>
+    <t>INPUT
+(consume)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/comptes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>AGENT si besoin ????????????</t>
+  </si>
+  <si>
+    <t>on doit pouvoir debit sur un compte dont on ne connait pas le client</t>
+  </si>
+  <si>
+    <t>modifierDemande()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IBAN)</t>
-    </r>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/demandes/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>entraine la création d'une notification pour le client</t>
+  </si>
+  <si>
+    <t>?DateDeb=&amp;DateFin=&amp;Duree=</t>
+  </si>
+  <si>
+    <t>demande</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>getClientById(id)</t>
+  </si>
+  <si>
+    <t>getClientByAgent(matAgent)</t>
+  </si>
+  <si>
+    <t>modifierClient(Client, mdp)</t>
+  </si>
+  <si>
+    <t>affecterClient(Client, matAgent)</t>
+  </si>
+  <si>
+    <t>supprimerAgent(id)</t>
+  </si>
+  <si>
+    <t>modifierAgent(Agent)</t>
+  </si>
+  <si>
+    <t>creerAgent(Agent)</t>
+  </si>
+  <si>
+    <t>supprimerNotification(idN)</t>
+  </si>
+  <si>
+    <t>creerNotification(Notification)</t>
   </si>
   <si>
     <r>
@@ -152,32 +554,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/login</t>
-    </r>
-  </si>
-  <si>
-    <t>AGENT</t>
-  </si>
-  <si>
-    <t>AGENT/ADMIN</t>
-  </si>
-  <si>
-    <t>CLIENT/AGENT</t>
-  </si>
-  <si>
-    <t>modifierCompteByIBAN(String IBAN)</t>
-  </si>
-  <si>
-    <t>verif(identifiant, mdp)</t>
-  </si>
-  <si>
-    <t>getAllAgents()</t>
-  </si>
-  <si>
-    <t>List&lt;Agent&gt;</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
+      <t>/clients/{idC}/demandeCompte</t>
+    </r>
   </si>
   <si>
     <r>
@@ -199,14 +577,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/agents</t>
-    </r>
-  </si>
-  <si>
-    <t>creerAgent()</t>
-  </si>
-  <si>
-    <t>Agent</t>
+      <t>/clients/{idC}/demandeChgtMdp</t>
+    </r>
   </si>
   <si>
     <r>
@@ -228,26 +600,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/agents/{id}</t>
-    </r>
-  </si>
-  <si>
-    <t>modifierAgent()</t>
-  </si>
-  <si>
-    <t>supprimerAgent()</t>
-  </si>
-  <si>
-    <t>getClientByAgent()</t>
-  </si>
-  <si>
-    <t>List&lt;Client&gt;</t>
-  </si>
-  <si>
-    <t>getAllInscriptions()</t>
-  </si>
-  <si>
-    <t>List&lt;Inscriptions&gt;</t>
+      <t>/clients/{idC}/notifications</t>
+    </r>
   </si>
   <si>
     <r>
@@ -269,14 +623,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/inscriptions</t>
-    </r>
-  </si>
-  <si>
-    <t>getAllInscriptions(traitee, affectee)</t>
-  </si>
-  <si>
-    <t>List&lt;Demande&gt;</t>
+      <t>/clients/{idC}/notifications/{idN}</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllNotificationsByClient(idC)</t>
+  </si>
+  <si>
+    <t>ajoutDemandeCompte(idC)</t>
+  </si>
+  <si>
+    <t>ajoutDemandeChgtMdp(idC)</t>
+  </si>
+  <si>
+    <t>ajoutDemandeChequier(idC)</t>
   </si>
   <si>
     <r>
@@ -298,7 +658,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/demandes</t>
+      <t xml:space="preserve">/clients/{idC}/comptes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
     </r>
   </si>
   <si>
@@ -321,23 +691,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/clients/{id}</t>
-    </r>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>getAllDemandesByAgent(matAgent)</t>
-  </si>
-  <si>
-    <t>getAllDemandesByClient(idClient)</t>
-  </si>
-  <si>
-    <t>?MatAgent=&amp;Status=</t>
-  </si>
-  <si>
-    <t>?IdClient=&amp;Status=</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{idC}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{iBAN}</t>
+    </r>
+  </si>
+  <si>
+    <t>getCompteByIBAN(iBAN)</t>
+  </si>
+  <si>
+    <t>getOperationsByIBAN(iBAN)</t>
   </si>
   <si>
     <r>
@@ -359,7 +739,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/clients/{id}/notifications</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{idC}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{iBAN}/operations</t>
     </r>
   </si>
   <si>
@@ -382,11 +781,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/clients</t>
-    </r>
-  </si>
-  <si>
-    <t>creerClient()</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{idC}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{iBAN}/demandeChequier</t>
+    </r>
+  </si>
+  <si>
+    <t>getOperationsByIBAN(iBAN, dateDebut, dateFin, duree)</t>
+  </si>
+  <si>
+    <t>ajouterOperation(iBAN)</t>
+  </si>
+  <si>
+    <t>modifierCompteByIBAN(iBAN)</t>
   </si>
   <si>
     <r>
@@ -408,35 +832,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/clients/{matriculeAgent}</t>
-    </r>
-  </si>
-  <si>
-    <t>getClientById()</t>
-  </si>
-  <si>
-    <t>formInscription</t>
-  </si>
-  <si>
-    <t>formCompte</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>Inscription</t>
-  </si>
-  <si>
-    <t>creation du client</t>
-  </si>
-  <si>
-    <t>REMARQUE</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>ajoutDemandeChgtMdp()</t>
+      <t>/comptes/{iBAN}</t>
+    </r>
   </si>
   <si>
     <r>
@@ -458,8 +855,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/clients/{id}/demandeCompte</t>
-    </r>
+      <t>/comptes/{iBAN}/operations</t>
+    </r>
+  </si>
+  <si>
+    <t>listClientComptes(idC)</t>
+  </si>
+  <si>
+    <t>modifierCompte()</t>
   </si>
   <si>
     <r>
@@ -481,349 +884,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/clients/{id}/demandeChgtMdp</t>
-    </r>
-  </si>
-  <si>
-    <t>INPUT (consume)</t>
-  </si>
-  <si>
-    <t>?Username=...&amp;Password=…</t>
-  </si>
-  <si>
-    <t>?Status=...&amp;Affectee=…</t>
-  </si>
-  <si>
-    <t>?Mdp=…</t>
-  </si>
-  <si>
-    <t>?MatAgent=…</t>
-  </si>
-  <si>
-    <t>?DateDeb=...&amp;DateFin=...&amp;Duree=…</t>
-  </si>
-  <si>
-    <t>getAllOperationsByIBAN()</t>
-  </si>
-  <si>
-    <t>WS</t>
-  </si>
-  <si>
-    <t>AuthService</t>
-  </si>
-  <si>
-    <t>InscriptionService</t>
-  </si>
-  <si>
-    <t>ClientService</t>
-  </si>
-  <si>
-    <t>CompteService</t>
-  </si>
-  <si>
-    <t>NotificationService</t>
-  </si>
-  <si>
-    <t>DemandeService</t>
-  </si>
-  <si>
-    <t>AgentService</t>
-  </si>
-  <si>
-    <t>modifierClient(Client)</t>
-  </si>
-  <si>
-    <t>SoapUI</t>
-  </si>
-  <si>
-    <t>BACK</t>
-  </si>
-  <si>
-    <t>FRONT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clients/{id}/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comptes/{IBAN}/operations</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clients/{id}/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comptes/{IBAN}/demandeChequier</t>
-    </r>
-  </si>
-  <si>
-    <t>affecterClient(Client)</t>
-  </si>
-  <si>
-    <t>getAllOperationsByIBAN(dateDebut, dateFin, duree)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{id}/notifications/{idN}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/clients/{id}/comptes </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="4" tint="0.79998168889431442"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>clients/{idC}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t/>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{id}/comptes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comptes/{IBAN}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clients/{id}/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comptes/{IBAN}</t>
-    </r>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Guillaume</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Persist</t>
-  </si>
-  <si>
-    <t>Dev</t>
+    <t>AGENT ???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,8 +977,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <i/>
       <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -920,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -928,6 +1031,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,7 +1131,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1052,7 +1165,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1228,51 +1340,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="6" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="10" width="50.5703125" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="45.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="57" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>0</v>
@@ -1281,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>75</v>
+        <v>18</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -1293,12 +1406,12 @@
         <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1306,32 +1419,32 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1339,34 +1452,34 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1374,30 +1487,30 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1405,108 +1518,112 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1514,69 +1631,71 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1584,337 +1703,353 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>86</v>
-      </c>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>97</v>
+      <c r="M18" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1923,30 +2058,36 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1954,27 +2095,29 @@
         <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="M21" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1985,102 +2128,104 @@
         <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="M22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2088,265 +2233,377 @@
         <v>6</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="J26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="M27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="J28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="J29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="6" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O31" s="1"/>
     </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:O34">
+    <filterColumn colId="0"/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="12840"/>
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$O$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$O$33</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="121">
   <si>
     <t>VERBE</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>DELETE</t>
-  </si>
-  <si>
-    <t>getAllComptes()</t>
   </si>
   <si>
     <t>Compte</t>
@@ -420,42 +417,6 @@
   <si>
     <t>INPUT
 (consume)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/comptes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>AGENT si besoin ????????????</t>
   </si>
   <si>
     <t>on doit pouvoir debit sur un compte dont on ne connait pas le client</t>
@@ -924,8 +885,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,6 +1092,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1165,6 +1127,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1340,14 +1303,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -1362,30 +1325,30 @@
     <col min="15" max="15" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57" customHeight="1">
+    <row r="1" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>0</v>
@@ -1394,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -1406,12 +1369,12 @@
         <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1419,32 +1382,32 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1452,34 +1415,34 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1487,30 +1450,30 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1518,112 +1481,112 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1631,71 +1594,71 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1703,292 +1666,302 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>123</v>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="10" t="s">
-        <v>111</v>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>120</v>
+      <c r="M17" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>7</v>
@@ -1998,59 +1971,59 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="10" t="s">
-        <v>111</v>
+      <c r="M18" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2058,36 +2031,32 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2095,29 +2064,29 @@
         <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2128,29 +2097,29 @@
         <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2161,71 +2130,75 @@
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2233,116 +2206,112 @@
         <v>6</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="1" t="s">
-        <v>6</v>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="M26" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="1" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="I27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>46</v>
@@ -2352,258 +2321,223 @@
         <v>44</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="B30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="4" t="s">
+      <c r="J30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="B31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O34">
-    <filterColumn colId="0"/>
-  </autoFilter>
+  <autoFilter ref="A1:O33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28515" windowHeight="12840"/>
@@ -11,12 +11,15 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$O$34</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="124">
   <si>
     <t>VERBE</t>
   </si>
@@ -30,9 +33,6 @@
     <t>RETURN</t>
   </si>
   <si>
-    <t>getComptes(Client)</t>
-  </si>
-  <si>
     <t>ESPACE</t>
   </si>
   <si>
@@ -45,6 +45,54 @@
     <t>GET</t>
   </si>
   <si>
+    <t>List&lt;Notification&gt;</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>getAllComptes()</t>
+  </si>
+  <si>
+    <t>Compte</t>
+  </si>
+  <si>
+    <t>List&lt;Operation&gt;</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Demande</t>
+  </si>
+  <si>
+    <t>ajoutCompte()</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>creerDemandeInscription()</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>String role</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
@@ -64,24 +112,821 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/client/comptes/{RIB}</t>
-    </r>
+      <t>/login</t>
+    </r>
+  </si>
+  <si>
+    <t>AGENT</t>
+  </si>
+  <si>
+    <t>AGENT/ADMIN</t>
+  </si>
+  <si>
+    <t>CLIENT/AGENT</t>
+  </si>
+  <si>
+    <t>verif(identifiant, mdp)</t>
+  </si>
+  <si>
+    <t>getAllAgents()</t>
+  </si>
+  <si>
+    <t>List&lt;Agent&gt;</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/agents</t>
+    </r>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/agents/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>List&lt;Client&gt;</t>
+  </si>
+  <si>
+    <t>getAllInscriptions()</t>
+  </si>
+  <si>
+    <t>List&lt;Inscriptions&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/inscriptions</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllInscriptions(traitee, affectee)</t>
+  </si>
+  <si>
+    <t>List&lt;Demande&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/demandes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>getAllDemandesByAgent(matAgent)</t>
+  </si>
+  <si>
+    <t>getAllDemandesByClient(idClient)</t>
+  </si>
+  <si>
+    <t>?MatAgent=&amp;Status=</t>
+  </si>
+  <si>
+    <t>?IdClient=&amp;Status=</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients</t>
+    </r>
+  </si>
+  <si>
+    <t>creerClient()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{matriculeAgent}</t>
+    </r>
+  </si>
+  <si>
+    <t>formCompte</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>creation du client</t>
+  </si>
+  <si>
+    <t>REMARQUE</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>?Username=...&amp;Password=…</t>
+  </si>
+  <si>
+    <t>?Status=...&amp;Affectee=…</t>
+  </si>
+  <si>
+    <t>?Mdp=…</t>
+  </si>
+  <si>
+    <t>?MatAgent=…</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>AuthService</t>
+  </si>
+  <si>
+    <t>InscriptionService</t>
+  </si>
+  <si>
+    <t>ClientService</t>
+  </si>
+  <si>
+    <t>CompteService</t>
+  </si>
+  <si>
+    <t>NotificationService</t>
+  </si>
+  <si>
+    <t>DemandeService</t>
+  </si>
+  <si>
+    <t>AgentService</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Persist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     JAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     SoapUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Angular</t>
+  </si>
+  <si>
+    <t>INPUT
+(consume)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/comptes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>AGENT si besoin ????????????</t>
+  </si>
+  <si>
+    <t>on doit pouvoir debit sur un compte dont on ne connait pas le client</t>
+  </si>
+  <si>
+    <t>modifierDemande()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/demandes/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>entraine la création d'une notification pour le client</t>
+  </si>
+  <si>
+    <t>?DateDeb=&amp;DateFin=&amp;Duree=</t>
+  </si>
+  <si>
+    <t>demande</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>getClientById(id)</t>
+  </si>
+  <si>
+    <t>getClientByAgent(matAgent)</t>
+  </si>
+  <si>
+    <t>modifierClient(Client, mdp)</t>
+  </si>
+  <si>
+    <t>affecterClient(Client, matAgent)</t>
+  </si>
+  <si>
+    <t>supprimerAgent(id)</t>
+  </si>
+  <si>
+    <t>modifierAgent(Agent)</t>
+  </si>
+  <si>
+    <t>creerAgent(Agent)</t>
+  </si>
+  <si>
+    <t>supprimerNotification(idN)</t>
+  </si>
+  <si>
+    <t>creerNotification(Notification)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{idC}/demandeCompte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{idC}/demandeChgtMdp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{idC}/notifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/clients/{idC}/notifications/{idN}</t>
+    </r>
+  </si>
+  <si>
+    <t>getAllNotificationsByClient(idC)</t>
+  </si>
+  <si>
+    <t>ajoutDemandeCompte(idC)</t>
+  </si>
+  <si>
+    <t>ajoutDemandeChgtMdp(idC)</t>
+  </si>
+  <si>
+    <t>ajoutDemandeChequier(idC)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/clients/{idC}/comptes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{idC}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{iBAN}</t>
+    </r>
+  </si>
+  <si>
+    <t>getCompteByIBAN(iBAN)</t>
+  </si>
+  <si>
+    <t>getOperationsByIBAN(iBAN)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{idC}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{iBAN}/operations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{idC}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes/{iBAN}/demandeChequier</t>
+    </r>
+  </si>
+  <si>
+    <t>getOperationsByIBAN(iBAN, dateDebut, dateFin, duree)</t>
+  </si>
+  <si>
+    <t>ajouterOperation(iBAN)</t>
+  </si>
+  <si>
+    <t>modifierCompteByIBAN(iBAN)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/comptes/{iBAN}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/comptes/{iBAN}/operations</t>
+    </r>
+  </si>
+  <si>
+    <t>listClientComptes(idC)</t>
+  </si>
+  <si>
+    <t>modifierCompte()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endpoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clients/{idC}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comptes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>AGENT ???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,13 +941,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,9 +1023,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,7 +1131,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,7 +1165,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,80 +1340,1270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="50.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="57" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O34">
+    <filterColumn colId="0"/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WS_Rest.xlsx
+++ b/WS_Rest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="120">
   <si>
     <t>VERBE</t>
   </si>
@@ -306,29 +306,6 @@
   </si>
   <si>
     <t>creerClient()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/clients/{matriculeAgent}</t>
-    </r>
   </si>
   <si>
     <t>formCompte</t>
@@ -1307,7 +1284,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,28 +1304,28 @@
   <sheetData>
     <row r="1" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>0</v>
@@ -1360,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -1369,12 +1346,12 @@
         <v>3</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1385,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -1394,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -1407,7 +1384,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1418,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>19</v>
@@ -1428,21 +1405,21 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1453,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
@@ -1473,7 +1450,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1484,7 +1461,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -1493,7 +1470,7 @@
         <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
@@ -1506,7 +1483,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -1523,7 +1500,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -1533,7 +1510,7 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>48</v>
@@ -1545,7 +1522,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>21</v>
@@ -1562,7 +1539,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -1571,13 +1548,13 @@
         <v>47</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>42</v>
@@ -1586,7 +1563,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1597,7 +1574,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
@@ -1606,13 +1583,13 @@
         <v>47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>42</v>
@@ -1621,7 +1598,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>21</v>
@@ -1638,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
@@ -1649,7 +1626,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>42</v>
@@ -1658,7 +1635,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1669,18 +1646,20 @@
         <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>34</v>
@@ -1689,7 +1668,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -1701,21 +1680,21 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>12</v>
@@ -1724,7 +1703,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1735,20 +1714,20 @@
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>12</v>
@@ -1757,7 +1736,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -1772,31 +1751,31 @@
         <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1811,17 +1790,17 @@
         <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>16</v>
@@ -1833,7 +1812,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -1848,20 +1827,20 @@
         <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>12</v>
@@ -1870,7 +1849,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1879,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1887,18 +1866,18 @@
         <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>5</v>
@@ -1907,7 +1886,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
@@ -1916,7 +1895,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1924,18 +1903,18 @@
         <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>12</v>
@@ -1944,7 +1923,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>21</v>
@@ -1953,7 +1932,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1961,18 +1940,18 @@
         <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>13</v>
@@ -1981,10 +1960,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1994,20 +1973,20 @@
         <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>13</v>
@@ -2016,7 +1995,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -2031,20 +2010,20 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>14</v>
@@ -2053,7 +2032,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2064,20 +2043,20 @@
         <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>15</v>
@@ -2086,7 +2065,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2097,20 +2076,20 @@
         <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>15</v>
@@ -2119,7 +2098,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2130,20 +2109,20 @@
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>15</v>
@@ -2152,7 +2131,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>21</v>
@@ -2161,7 +2140,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -2169,18 +2148,18 @@
         <v>6</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>8</v>
@@ -2189,7 +2168,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>21</v>
@@ -2206,18 +2185,18 @@
         <v>6</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>9</v>
@@ -2226,7 +2205,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2237,20 +2216,20 @@
         <v>24</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>9</v>
@@ -2259,10 +2238,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2272,7 +2251,7 @@
         <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>7</v>
@@ -2294,7 +2273,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2305,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>7</v>
@@ -2327,7 +2306,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2338,31 +2317,31 @@
         <v>24</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>21</v>
@@ -2379,7 +2358,7 @@
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>7</v>
@@ -2399,7 +2378,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>21</v>
@@ -2416,7 +2395,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>19</v>
@@ -2426,10 +2405,10 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>32</v>
@@ -2438,16 +2417,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -2455,7 +2434,7 @@
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>10</v>
@@ -2465,10 +2444,10 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>32</v>
@@ -2477,16 +2456,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2494,7 +2473,7 @@
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>11</v>
@@ -2505,7 +2484,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>32</v>
